--- a/analysis/participant_extractedmetrics/participant 290.xlsx
+++ b/analysis/participant_extractedmetrics/participant 290.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="94">
   <si>
     <t/>
   </si>
@@ -234,6 +234,18 @@
     <t>pre gem</t>
   </si>
   <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>Fixation</t>
+  </si>
+  <si>
+    <t>based</t>
+  </si>
+  <si>
+    <t>metrics</t>
+  </si>
+  <si>
     <t>arg1</t>
   </si>
   <si>
@@ -289,7 +301,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -300,6 +312,11 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -316,12 +333,21 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -743,6 +769,8 @@
       <c r="BM1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="BN1" s="1"/>
+      <c r="BO1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
@@ -938,6 +966,8 @@
         <v>0</v>
       </c>
       <c r="BM2" s="1"/>
+      <c r="BN2" s="1"/>
+      <c r="BO2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
@@ -1135,6 +1165,8 @@
       <c r="BM3" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="BN3" s="1"/>
+      <c r="BO3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
@@ -1332,6 +1364,8 @@
       <c r="BM4" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="BN4" s="1"/>
+      <c r="BO4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
@@ -1529,6 +1563,8 @@
       <c r="BM5" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="BN5" s="1"/>
+      <c r="BO5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
@@ -1726,6 +1762,8 @@
       <c r="BM6" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="BN6" s="1"/>
+      <c r="BO6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
@@ -1923,6 +1961,8 @@
       <c r="BM7" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="BN7" s="1"/>
+      <c r="BO7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
@@ -2120,6 +2160,8 @@
       <c r="BM8" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="BN8" s="1"/>
+      <c r="BO8" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
@@ -2322,6 +2364,8 @@
       <c r="BM13" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="BN13" s="1"/>
+      <c r="BO13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
@@ -2517,6 +2561,8 @@
         <v>0</v>
       </c>
       <c r="BM14" s="1"/>
+      <c r="BN14" s="1"/>
+      <c r="BO14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
@@ -2714,6 +2760,8 @@
       <c r="BM15" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="BN15" s="1"/>
+      <c r="BO15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
@@ -2911,6 +2959,8 @@
       <c r="BM16" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="BN16" s="1"/>
+      <c r="BO16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
@@ -3108,6 +3158,8 @@
       <c r="BM17" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="BN17" s="1"/>
+      <c r="BO17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
@@ -3305,6 +3357,8 @@
       <c r="BM18" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="BN18" s="1"/>
+      <c r="BO18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
@@ -3502,6 +3556,8 @@
       <c r="BM19" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="BN19" s="1"/>
+      <c r="BO19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
@@ -3698,6 +3754,1520 @@
       </c>
       <c r="BM20" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="BN20" s="1"/>
+      <c r="BO20" s="1"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
+      <c r="AW22" s="3"/>
+      <c r="AX22" s="3"/>
+      <c r="AY22" s="3"/>
+      <c r="AZ22" s="3"/>
+      <c r="BA22" s="3"/>
+      <c r="BB22" s="3"/>
+      <c r="BC22" s="3"/>
+      <c r="BD22" s="3"/>
+      <c r="BE22" s="3"/>
+      <c r="BF22" s="3"/>
+      <c r="BG22" s="3"/>
+      <c r="BH22" s="3"/>
+      <c r="BI22" s="3"/>
+      <c r="BJ22" s="3"/>
+      <c r="BK22" s="3"/>
+      <c r="BL22" s="3"/>
+      <c r="BM22" s="3"/>
+      <c r="BN22" s="3"/>
+      <c r="BO22" s="3"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM23" s="3"/>
+      <c r="BN23" s="3"/>
+      <c r="BO23" s="3"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3"/>
+      <c r="AP24" s="3"/>
+      <c r="AQ24" s="3"/>
+      <c r="AR24" s="3"/>
+      <c r="AS24" s="3"/>
+      <c r="AT24" s="3"/>
+      <c r="AU24" s="3"/>
+      <c r="AV24" s="3"/>
+      <c r="AW24" s="3"/>
+      <c r="AX24" s="3"/>
+      <c r="AY24" s="3"/>
+      <c r="AZ24" s="3"/>
+      <c r="BA24" s="3"/>
+      <c r="BB24" s="3"/>
+      <c r="BC24" s="3"/>
+      <c r="BD24" s="3"/>
+      <c r="BE24" s="3"/>
+      <c r="BF24" s="3"/>
+      <c r="BG24" s="3"/>
+      <c r="BH24" s="3"/>
+      <c r="BI24" s="3"/>
+      <c r="BJ24" s="3"/>
+      <c r="BK24" s="3"/>
+      <c r="BL24" s="3"/>
+      <c r="BM24" s="3"/>
+      <c r="BN24" s="3"/>
+      <c r="BO24" s="3"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="I25" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="J25" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="K25" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="L25" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="M25" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="N25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>45.0</v>
+      </c>
+      <c r="R25" s="4">
+        <v>40.0</v>
+      </c>
+      <c r="S25" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="T25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V25" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="W25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="X25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>41.0</v>
+      </c>
+      <c r="Z25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AA25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC25" s="4">
+        <v>49.0</v>
+      </c>
+      <c r="AD25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AE25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AF25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH25" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="AI25" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="AJ25" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="AK25" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="AL25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AO25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AP25" s="4">
+        <v>38.0</v>
+      </c>
+      <c r="AQ25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AS25" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="AT25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AU25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AV25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AW25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AX25" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="AY25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AZ25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="BA25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="BB25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BC25" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="BD25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BE25" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="BF25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BG25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BH25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BI25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BJ25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BK25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BL25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM25" s="3"/>
+      <c r="BN25" s="3"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G26" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="I26" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="J26" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="K26" s="4">
+        <v>17.0</v>
+      </c>
+      <c r="L26" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="M26" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="N26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>189.0</v>
+      </c>
+      <c r="R26" s="4">
+        <v>89.0</v>
+      </c>
+      <c r="S26" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="T26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V26" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="X26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="Y26" s="4">
+        <v>348.0</v>
+      </c>
+      <c r="Z26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AA26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC26" s="4">
+        <v>122.0</v>
+      </c>
+      <c r="AD26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AE26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AF26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH26" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="AI26" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="AJ26" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="AK26" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="AL26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AO26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AP26" s="4">
+        <v>244.0</v>
+      </c>
+      <c r="AQ26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AS26" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="AT26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AU26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AV26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AW26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AX26" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="AY26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AZ26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="BA26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="BB26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BC26" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="BD26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BE26" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="BF26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BG26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BH26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BI26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BJ26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BK26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BL26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM26" s="3"/>
+      <c r="BN26" s="3"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="4">
+        <v>300.33</v>
+      </c>
+      <c r="F27" s="4">
+        <v>2152.3</v>
+      </c>
+      <c r="G27" s="4">
+        <v>3503.96</v>
+      </c>
+      <c r="H27" s="4">
+        <v>2970.0</v>
+      </c>
+      <c r="I27" s="4">
+        <v>2985.98</v>
+      </c>
+      <c r="J27" s="4">
+        <v>9351.98</v>
+      </c>
+      <c r="K27" s="4">
+        <v>8109.17</v>
+      </c>
+      <c r="L27" s="4">
+        <v>2126.8</v>
+      </c>
+      <c r="M27" s="4">
+        <v>2034.91</v>
+      </c>
+      <c r="N27" s="4">
+        <v>133.43</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>55947.92</v>
+      </c>
+      <c r="R27" s="4">
+        <v>28837.59</v>
+      </c>
+      <c r="S27" s="4">
+        <v>6823.62</v>
+      </c>
+      <c r="T27" s="4">
+        <v>766.98</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V27" s="4">
+        <v>884.07</v>
+      </c>
+      <c r="W27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="X27" s="4">
+        <v>133.49</v>
+      </c>
+      <c r="Y27" s="4">
+        <v>83896.11</v>
+      </c>
+      <c r="Z27" s="4">
+        <v>250.31</v>
+      </c>
+      <c r="AA27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC27" s="4">
+        <v>38915.55</v>
+      </c>
+      <c r="AD27" s="4">
+        <v>100.03</v>
+      </c>
+      <c r="AE27" s="4">
+        <v>100.03</v>
+      </c>
+      <c r="AF27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH27" s="4">
+        <v>5673.06</v>
+      </c>
+      <c r="AI27" s="4">
+        <v>517.48</v>
+      </c>
+      <c r="AJ27" s="4">
+        <v>1100.79</v>
+      </c>
+      <c r="AK27" s="4">
+        <v>583.74</v>
+      </c>
+      <c r="AL27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN27" s="4">
+        <v>684.06</v>
+      </c>
+      <c r="AO27" s="4">
+        <v>150.18</v>
+      </c>
+      <c r="AP27" s="4">
+        <v>66020.99</v>
+      </c>
+      <c r="AQ27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR27" s="4">
+        <v>133.43</v>
+      </c>
+      <c r="AS27" s="4">
+        <v>1000.92</v>
+      </c>
+      <c r="AT27" s="4">
+        <v>116.8</v>
+      </c>
+      <c r="AU27" s="4">
+        <v>216.88</v>
+      </c>
+      <c r="AV27" s="4">
+        <v>150.17</v>
+      </c>
+      <c r="AW27" s="4">
+        <v>1568.38</v>
+      </c>
+      <c r="AX27" s="4">
+        <v>5155.45</v>
+      </c>
+      <c r="AY27" s="4">
+        <v>567.26</v>
+      </c>
+      <c r="AZ27" s="4">
+        <v>1585.08</v>
+      </c>
+      <c r="BA27" s="4">
+        <v>183.38</v>
+      </c>
+      <c r="BB27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BC27" s="4">
+        <v>2685.86</v>
+      </c>
+      <c r="BD27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BE27" s="4">
+        <v>2719.69</v>
+      </c>
+      <c r="BF27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BG27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BH27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BI27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BJ27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BK27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BL27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM27" s="3"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1.06</v>
+      </c>
+      <c r="I28" s="4">
+        <v>1.06</v>
+      </c>
+      <c r="J28" s="4">
+        <v>3.33</v>
+      </c>
+      <c r="K28" s="4">
+        <v>2.89</v>
+      </c>
+      <c r="L28" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="M28" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>19.93</v>
+      </c>
+      <c r="R28" s="4">
+        <v>10.27</v>
+      </c>
+      <c r="S28" s="4">
+        <v>2.43</v>
+      </c>
+      <c r="T28" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="U28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V28" s="4">
+        <v>0.31</v>
+      </c>
+      <c r="W28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="X28" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="Y28" s="4">
+        <v>29.89</v>
+      </c>
+      <c r="Z28" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="AA28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC28" s="4">
+        <v>13.86</v>
+      </c>
+      <c r="AD28" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="AE28" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="AF28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH28" s="4">
+        <v>2.02</v>
+      </c>
+      <c r="AI28" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="AJ28" s="4">
+        <v>0.39</v>
+      </c>
+      <c r="AK28" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="AL28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN28" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="AO28" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="AP28" s="4">
+        <v>23.52</v>
+      </c>
+      <c r="AQ28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR28" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="AS28" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="AT28" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="AU28" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="AV28" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="AW28" s="4">
+        <v>0.56</v>
+      </c>
+      <c r="AX28" s="4">
+        <v>1.84</v>
+      </c>
+      <c r="AY28" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AZ28" s="4">
+        <v>0.56</v>
+      </c>
+      <c r="BA28" s="4">
+        <v>0.07</v>
+      </c>
+      <c r="BB28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BC28" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="BD28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BE28" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="BF28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BG28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BH28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BI28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BJ28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BK28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BL28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM28" s="3"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="4">
+        <v>150.17</v>
+      </c>
+      <c r="F29" s="4">
+        <v>430.46</v>
+      </c>
+      <c r="G29" s="4">
+        <v>700.79</v>
+      </c>
+      <c r="H29" s="4">
+        <v>742.5</v>
+      </c>
+      <c r="I29" s="4">
+        <v>426.57</v>
+      </c>
+      <c r="J29" s="4">
+        <v>584.5</v>
+      </c>
+      <c r="K29" s="4">
+        <v>477.01</v>
+      </c>
+      <c r="L29" s="4">
+        <v>212.68</v>
+      </c>
+      <c r="M29" s="4">
+        <v>226.1</v>
+      </c>
+      <c r="N29" s="4">
+        <v>133.43</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>296.02</v>
+      </c>
+      <c r="R29" s="4">
+        <v>324.02</v>
+      </c>
+      <c r="S29" s="4">
+        <v>568.63</v>
+      </c>
+      <c r="T29" s="4">
+        <v>766.98</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V29" s="4">
+        <v>176.81</v>
+      </c>
+      <c r="W29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="X29" s="4">
+        <v>133.49</v>
+      </c>
+      <c r="Y29" s="4">
+        <v>241.08</v>
+      </c>
+      <c r="Z29" s="4">
+        <v>250.31</v>
+      </c>
+      <c r="AA29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC29" s="4">
+        <v>318.98</v>
+      </c>
+      <c r="AD29" s="4">
+        <v>100.03</v>
+      </c>
+      <c r="AE29" s="4">
+        <v>100.03</v>
+      </c>
+      <c r="AF29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH29" s="4">
+        <v>630.34</v>
+      </c>
+      <c r="AI29" s="4">
+        <v>172.49</v>
+      </c>
+      <c r="AJ29" s="4">
+        <v>220.16</v>
+      </c>
+      <c r="AK29" s="4">
+        <v>194.58</v>
+      </c>
+      <c r="AL29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN29" s="4">
+        <v>684.06</v>
+      </c>
+      <c r="AO29" s="4">
+        <v>150.18</v>
+      </c>
+      <c r="AP29" s="4">
+        <v>270.58</v>
+      </c>
+      <c r="AQ29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR29" s="4">
+        <v>133.43</v>
+      </c>
+      <c r="AS29" s="4">
+        <v>250.23</v>
+      </c>
+      <c r="AT29" s="4">
+        <v>116.8</v>
+      </c>
+      <c r="AU29" s="4">
+        <v>216.88</v>
+      </c>
+      <c r="AV29" s="4">
+        <v>150.17</v>
+      </c>
+      <c r="AW29" s="4">
+        <v>1568.38</v>
+      </c>
+      <c r="AX29" s="4">
+        <v>468.68</v>
+      </c>
+      <c r="AY29" s="4">
+        <v>567.26</v>
+      </c>
+      <c r="AZ29" s="4">
+        <v>1585.08</v>
+      </c>
+      <c r="BA29" s="4">
+        <v>183.38</v>
+      </c>
+      <c r="BB29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BC29" s="4">
+        <v>537.17</v>
+      </c>
+      <c r="BD29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BE29" s="4">
+        <v>906.56</v>
+      </c>
+      <c r="BF29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BG29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BH29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BI29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BJ29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BK29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BL29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM29" s="3"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="4">
+        <v>116.8</v>
+      </c>
+      <c r="F30" s="4">
+        <v>317.0</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1585.08</v>
+      </c>
+      <c r="H30" s="4">
+        <v>700.76</v>
+      </c>
+      <c r="I30" s="4">
+        <v>183.38</v>
+      </c>
+      <c r="J30" s="4">
+        <v>1585.08</v>
+      </c>
+      <c r="K30" s="4">
+        <v>133.43</v>
+      </c>
+      <c r="L30" s="4">
+        <v>100.15</v>
+      </c>
+      <c r="M30" s="4">
+        <v>233.42</v>
+      </c>
+      <c r="N30" s="4">
+        <v>133.43</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>66.64</v>
+      </c>
+      <c r="R30" s="4">
+        <v>233.42</v>
+      </c>
+      <c r="S30" s="4">
+        <v>183.38</v>
+      </c>
+      <c r="T30" s="4">
+        <v>766.98</v>
+      </c>
+      <c r="U30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V30" s="4">
+        <v>233.42</v>
+      </c>
+      <c r="W30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="X30" s="4">
+        <v>133.49</v>
+      </c>
+      <c r="Y30" s="4">
+        <v>169.59</v>
+      </c>
+      <c r="Z30" s="4">
+        <v>250.31</v>
+      </c>
+      <c r="AA30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC30" s="4">
+        <v>233.42</v>
+      </c>
+      <c r="AD30" s="4">
+        <v>100.03</v>
+      </c>
+      <c r="AE30" s="4">
+        <v>100.03</v>
+      </c>
+      <c r="AF30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH30" s="4">
+        <v>1585.08</v>
+      </c>
+      <c r="AI30" s="4">
+        <v>133.43</v>
+      </c>
+      <c r="AJ30" s="4">
+        <v>100.15</v>
+      </c>
+      <c r="AK30" s="4">
+        <v>233.42</v>
+      </c>
+      <c r="AL30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN30" s="4">
+        <v>684.06</v>
+      </c>
+      <c r="AO30" s="4">
+        <v>150.18</v>
+      </c>
+      <c r="AP30" s="4">
+        <v>166.78</v>
+      </c>
+      <c r="AQ30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR30" s="4">
+        <v>133.43</v>
+      </c>
+      <c r="AS30" s="4">
+        <v>233.42</v>
+      </c>
+      <c r="AT30" s="4">
+        <v>116.8</v>
+      </c>
+      <c r="AU30" s="4">
+        <v>216.88</v>
+      </c>
+      <c r="AV30" s="4">
+        <v>150.17</v>
+      </c>
+      <c r="AW30" s="4">
+        <v>1568.38</v>
+      </c>
+      <c r="AX30" s="4">
+        <v>317.0</v>
+      </c>
+      <c r="AY30" s="4">
+        <v>567.26</v>
+      </c>
+      <c r="AZ30" s="4">
+        <v>1585.08</v>
+      </c>
+      <c r="BA30" s="4">
+        <v>183.38</v>
+      </c>
+      <c r="BB30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BC30" s="4">
+        <v>700.28</v>
+      </c>
+      <c r="BD30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BE30" s="4">
+        <v>700.76</v>
+      </c>
+      <c r="BF30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BG30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BH30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BI30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BJ30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BK30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BL30" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3720,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>16</v>
@@ -3729,19 +5299,19 @@
         <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>39</v>
@@ -3750,7 +5320,7 @@
         <v>40</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>41</v>
@@ -4147,7 +5717,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>16</v>
@@ -4156,19 +5726,19 @@
         <v>24</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>39</v>
@@ -4177,7 +5747,7 @@
         <v>40</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>41</v>
@@ -4563,6 +6133,846 @@
       <c r="Q19" s="1" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="21" ht="16.5" customHeight="1">
+      <c r="A21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
+      <c r="AO21" s="3"/>
+      <c r="AP21" s="3"/>
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="3"/>
+      <c r="AS21" s="3"/>
+      <c r="AT21" s="3"/>
+      <c r="AU21" s="3"/>
+      <c r="AV21" s="3"/>
+      <c r="AW21" s="3"/>
+      <c r="AX21" s="3"/>
+      <c r="AY21" s="3"/>
+      <c r="AZ21" s="3"/>
+      <c r="BA21" s="3"/>
+      <c r="BB21" s="3"/>
+      <c r="BC21" s="3"/>
+      <c r="BD21" s="3"/>
+      <c r="BE21" s="3"/>
+      <c r="BF21" s="3"/>
+      <c r="BG21" s="3"/>
+      <c r="BH21" s="3"/>
+      <c r="BI21" s="3"/>
+      <c r="BJ21" s="3"/>
+      <c r="BK21" s="3"/>
+      <c r="BL21" s="3"/>
+      <c r="BM21" s="3"/>
+      <c r="BN21" s="3"/>
+      <c r="BO21" s="3"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3"/>
+      <c r="B22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
+      <c r="AW22" s="3"/>
+      <c r="AX22" s="3"/>
+      <c r="AY22" s="3"/>
+      <c r="AZ22" s="3"/>
+      <c r="BA22" s="3"/>
+      <c r="BB22" s="3"/>
+      <c r="BC22" s="3"/>
+      <c r="BD22" s="3"/>
+      <c r="BE22" s="3"/>
+      <c r="BF22" s="3"/>
+      <c r="BG22" s="3"/>
+      <c r="BH22" s="3"/>
+      <c r="BI22" s="3"/>
+      <c r="BJ22" s="3"/>
+      <c r="BK22" s="3"/>
+      <c r="BL22" s="3"/>
+      <c r="BM22" s="3"/>
+      <c r="BN22" s="3"/>
+      <c r="BO22" s="3"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="3"/>
+      <c r="AQ23" s="3"/>
+      <c r="AR23" s="3"/>
+      <c r="AS23" s="3"/>
+      <c r="AT23" s="3"/>
+      <c r="AU23" s="3"/>
+      <c r="AV23" s="3"/>
+      <c r="AW23" s="3"/>
+      <c r="AX23" s="3"/>
+      <c r="AY23" s="3"/>
+      <c r="AZ23" s="3"/>
+      <c r="BA23" s="3"/>
+      <c r="BB23" s="3"/>
+      <c r="BC23" s="3"/>
+      <c r="BD23" s="3"/>
+      <c r="BE23" s="3"/>
+      <c r="BF23" s="3"/>
+      <c r="BG23" s="3"/>
+      <c r="BH23" s="3"/>
+      <c r="BI23" s="3"/>
+      <c r="BJ23" s="3"/>
+      <c r="BK23" s="3"/>
+      <c r="BL23" s="3"/>
+      <c r="BM23" s="3"/>
+      <c r="BN23" s="3"/>
+      <c r="BO23" s="3"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D24" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L24" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="M24" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="P24" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3"/>
+      <c r="AP24" s="3"/>
+      <c r="AQ24" s="3"/>
+      <c r="AR24" s="3"/>
+      <c r="AS24" s="3"/>
+      <c r="AT24" s="3"/>
+      <c r="AU24" s="3"/>
+      <c r="AV24" s="3"/>
+      <c r="AW24" s="3"/>
+      <c r="AX24" s="3"/>
+      <c r="AY24" s="3"/>
+      <c r="AZ24" s="3"/>
+      <c r="BA24" s="3"/>
+      <c r="BB24" s="3"/>
+      <c r="BC24" s="3"/>
+      <c r="BD24" s="3"/>
+      <c r="BE24" s="3"/>
+      <c r="BF24" s="3"/>
+      <c r="BG24" s="3"/>
+      <c r="BH24" s="3"/>
+      <c r="BI24" s="3"/>
+      <c r="BJ24" s="3"/>
+      <c r="BK24" s="3"/>
+      <c r="BL24" s="3"/>
+      <c r="BM24" s="3"/>
+      <c r="BN24" s="3"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D25" s="4">
+        <v>189.0</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M25" s="4">
+        <v>61.0</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="P25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="3"/>
+      <c r="AR25" s="3"/>
+      <c r="AS25" s="3"/>
+      <c r="AT25" s="3"/>
+      <c r="AU25" s="3"/>
+      <c r="AV25" s="3"/>
+      <c r="AW25" s="3"/>
+      <c r="AX25" s="3"/>
+      <c r="AY25" s="3"/>
+      <c r="AZ25" s="3"/>
+      <c r="BA25" s="3"/>
+      <c r="BB25" s="3"/>
+      <c r="BC25" s="3"/>
+      <c r="BD25" s="3"/>
+      <c r="BE25" s="3"/>
+      <c r="BF25" s="3"/>
+      <c r="BG25" s="3"/>
+      <c r="BH25" s="3"/>
+      <c r="BI25" s="3"/>
+      <c r="BJ25" s="3"/>
+      <c r="BK25" s="3"/>
+      <c r="BL25" s="3"/>
+      <c r="BM25" s="3"/>
+      <c r="BN25" s="3"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="4">
+        <v>717.43</v>
+      </c>
+      <c r="D26" s="4">
+        <v>38900.66</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I26" s="4">
+        <v>150.13</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L26" s="4">
+        <v>150.13</v>
+      </c>
+      <c r="M26" s="4">
+        <v>14247.73</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="P26" s="4">
+        <v>150.13</v>
+      </c>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
+      <c r="AP26" s="3"/>
+      <c r="AQ26" s="3"/>
+      <c r="AR26" s="3"/>
+      <c r="AS26" s="3"/>
+      <c r="AT26" s="3"/>
+      <c r="AU26" s="3"/>
+      <c r="AV26" s="3"/>
+      <c r="AW26" s="3"/>
+      <c r="AX26" s="3"/>
+      <c r="AY26" s="3"/>
+      <c r="AZ26" s="3"/>
+      <c r="BA26" s="3"/>
+      <c r="BB26" s="3"/>
+      <c r="BC26" s="3"/>
+      <c r="BD26" s="3"/>
+      <c r="BE26" s="3"/>
+      <c r="BF26" s="3"/>
+      <c r="BG26" s="3"/>
+      <c r="BH26" s="3"/>
+      <c r="BI26" s="3"/>
+      <c r="BJ26" s="3"/>
+      <c r="BK26" s="3"/>
+      <c r="BL26" s="3"/>
+      <c r="BM26" s="3"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="D27" s="4">
+        <v>36.72</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0.14</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L27" s="4">
+        <v>0.14</v>
+      </c>
+      <c r="M27" s="4">
+        <v>13.45</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="P27" s="4">
+        <v>0.14</v>
+      </c>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
+      <c r="AP27" s="3"/>
+      <c r="AQ27" s="3"/>
+      <c r="AR27" s="3"/>
+      <c r="AS27" s="3"/>
+      <c r="AT27" s="3"/>
+      <c r="AU27" s="3"/>
+      <c r="AV27" s="3"/>
+      <c r="AW27" s="3"/>
+      <c r="AX27" s="3"/>
+      <c r="AY27" s="3"/>
+      <c r="AZ27" s="3"/>
+      <c r="BA27" s="3"/>
+      <c r="BB27" s="3"/>
+      <c r="BC27" s="3"/>
+      <c r="BD27" s="3"/>
+      <c r="BE27" s="3"/>
+      <c r="BF27" s="3"/>
+      <c r="BG27" s="3"/>
+      <c r="BH27" s="3"/>
+      <c r="BI27" s="3"/>
+      <c r="BJ27" s="3"/>
+      <c r="BK27" s="3"/>
+      <c r="BL27" s="3"/>
+      <c r="BM27" s="3"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="4">
+        <v>239.14</v>
+      </c>
+      <c r="D28" s="4">
+        <v>205.82</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I28" s="4">
+        <v>150.13</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L28" s="4">
+        <v>150.13</v>
+      </c>
+      <c r="M28" s="4">
+        <v>233.57</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="P28" s="4">
+        <v>150.13</v>
+      </c>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+      <c r="AP28" s="3"/>
+      <c r="AQ28" s="3"/>
+      <c r="AR28" s="3"/>
+      <c r="AS28" s="3"/>
+      <c r="AT28" s="3"/>
+      <c r="AU28" s="3"/>
+      <c r="AV28" s="3"/>
+      <c r="AW28" s="3"/>
+      <c r="AX28" s="3"/>
+      <c r="AY28" s="3"/>
+      <c r="AZ28" s="3"/>
+      <c r="BA28" s="3"/>
+      <c r="BB28" s="3"/>
+      <c r="BC28" s="3"/>
+      <c r="BD28" s="3"/>
+      <c r="BE28" s="3"/>
+      <c r="BF28" s="3"/>
+      <c r="BG28" s="3"/>
+      <c r="BH28" s="3"/>
+      <c r="BI28" s="3"/>
+      <c r="BJ28" s="3"/>
+      <c r="BK28" s="3"/>
+      <c r="BL28" s="3"/>
+      <c r="BM28" s="3"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="4">
+        <v>450.42</v>
+      </c>
+      <c r="D29" s="4">
+        <v>293.92</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I29" s="4">
+        <v>150.13</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L29" s="4">
+        <v>150.13</v>
+      </c>
+      <c r="M29" s="4">
+        <v>116.74</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="P29" s="4">
+        <v>150.13</v>
+      </c>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="3"/>
+      <c r="AO29" s="3"/>
+      <c r="AP29" s="3"/>
+      <c r="AQ29" s="3"/>
+      <c r="AR29" s="3"/>
+      <c r="AS29" s="3"/>
+      <c r="AT29" s="3"/>
+      <c r="AU29" s="3"/>
+      <c r="AV29" s="3"/>
+      <c r="AW29" s="3"/>
+      <c r="AX29" s="3"/>
+      <c r="AY29" s="3"/>
+      <c r="AZ29" s="3"/>
+      <c r="BA29" s="3"/>
+      <c r="BB29" s="3"/>
+      <c r="BC29" s="3"/>
+      <c r="BD29" s="3"/>
+      <c r="BE29" s="3"/>
+      <c r="BF29" s="3"/>
+      <c r="BG29" s="3"/>
+      <c r="BH29" s="3"/>
+      <c r="BI29" s="3"/>
+      <c r="BJ29" s="3"/>
+      <c r="BK29" s="3"/>
+      <c r="BL29" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4584,7 +6994,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -4602,10 +7012,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
@@ -4620,34 +7030,34 @@
         <v>18</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>31</v>
@@ -4656,7 +7066,7 @@
         <v>33</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>34</v>
@@ -4671,7 +7081,7 @@
         <v>39</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>41</v>
@@ -4691,6 +7101,36 @@
       <c r="AK1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="1"/>
+      <c r="BC1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BE1" s="1"/>
+      <c r="BF1" s="1"/>
+      <c r="BG1" s="1"/>
+      <c r="BH1" s="1"/>
+      <c r="BI1" s="1"/>
+      <c r="BJ1" s="1"/>
+      <c r="BK1" s="1"/>
+      <c r="BL1" s="1"/>
+      <c r="BM1" s="1"/>
+      <c r="BN1" s="1"/>
+      <c r="BO1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
@@ -4802,6 +7242,36 @@
         <v>0</v>
       </c>
       <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
+      <c r="BA2" s="1"/>
+      <c r="BB2" s="1"/>
+      <c r="BC2" s="1"/>
+      <c r="BD2" s="1"/>
+      <c r="BE2" s="1"/>
+      <c r="BF2" s="1"/>
+      <c r="BG2" s="1"/>
+      <c r="BH2" s="1"/>
+      <c r="BI2" s="1"/>
+      <c r="BJ2" s="1"/>
+      <c r="BK2" s="1"/>
+      <c r="BL2" s="1"/>
+      <c r="BM2" s="1"/>
+      <c r="BN2" s="1"/>
+      <c r="BO2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
@@ -4915,6 +7385,36 @@
       <c r="AK3" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1"/>
+      <c r="BB3" s="1"/>
+      <c r="BC3" s="1"/>
+      <c r="BD3" s="1"/>
+      <c r="BE3" s="1"/>
+      <c r="BF3" s="1"/>
+      <c r="BG3" s="1"/>
+      <c r="BH3" s="1"/>
+      <c r="BI3" s="1"/>
+      <c r="BJ3" s="1"/>
+      <c r="BK3" s="1"/>
+      <c r="BL3" s="1"/>
+      <c r="BM3" s="1"/>
+      <c r="BN3" s="1"/>
+      <c r="BO3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
@@ -5028,6 +7528,36 @@
       <c r="AK4" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="1"/>
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1"/>
+      <c r="BA4" s="1"/>
+      <c r="BB4" s="1"/>
+      <c r="BC4" s="1"/>
+      <c r="BD4" s="1"/>
+      <c r="BE4" s="1"/>
+      <c r="BF4" s="1"/>
+      <c r="BG4" s="1"/>
+      <c r="BH4" s="1"/>
+      <c r="BI4" s="1"/>
+      <c r="BJ4" s="1"/>
+      <c r="BK4" s="1"/>
+      <c r="BL4" s="1"/>
+      <c r="BM4" s="1"/>
+      <c r="BN4" s="1"/>
+      <c r="BO4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
@@ -5141,6 +7671,36 @@
       <c r="AK5" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="1"/>
+      <c r="AX5" s="1"/>
+      <c r="AY5" s="1"/>
+      <c r="AZ5" s="1"/>
+      <c r="BA5" s="1"/>
+      <c r="BB5" s="1"/>
+      <c r="BC5" s="1"/>
+      <c r="BD5" s="1"/>
+      <c r="BE5" s="1"/>
+      <c r="BF5" s="1"/>
+      <c r="BG5" s="1"/>
+      <c r="BH5" s="1"/>
+      <c r="BI5" s="1"/>
+      <c r="BJ5" s="1"/>
+      <c r="BK5" s="1"/>
+      <c r="BL5" s="1"/>
+      <c r="BM5" s="1"/>
+      <c r="BN5" s="1"/>
+      <c r="BO5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
@@ -5254,6 +7814,36 @@
       <c r="AK6" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1"/>
+      <c r="AS6" s="1"/>
+      <c r="AT6" s="1"/>
+      <c r="AU6" s="1"/>
+      <c r="AV6" s="1"/>
+      <c r="AW6" s="1"/>
+      <c r="AX6" s="1"/>
+      <c r="AY6" s="1"/>
+      <c r="AZ6" s="1"/>
+      <c r="BA6" s="1"/>
+      <c r="BB6" s="1"/>
+      <c r="BC6" s="1"/>
+      <c r="BD6" s="1"/>
+      <c r="BE6" s="1"/>
+      <c r="BF6" s="1"/>
+      <c r="BG6" s="1"/>
+      <c r="BH6" s="1"/>
+      <c r="BI6" s="1"/>
+      <c r="BJ6" s="1"/>
+      <c r="BK6" s="1"/>
+      <c r="BL6" s="1"/>
+      <c r="BM6" s="1"/>
+      <c r="BN6" s="1"/>
+      <c r="BO6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
@@ -5367,6 +7957,36 @@
       <c r="AK7" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1"/>
+      <c r="AS7" s="1"/>
+      <c r="AT7" s="1"/>
+      <c r="AU7" s="1"/>
+      <c r="AV7" s="1"/>
+      <c r="AW7" s="1"/>
+      <c r="AX7" s="1"/>
+      <c r="AY7" s="1"/>
+      <c r="AZ7" s="1"/>
+      <c r="BA7" s="1"/>
+      <c r="BB7" s="1"/>
+      <c r="BC7" s="1"/>
+      <c r="BD7" s="1"/>
+      <c r="BE7" s="1"/>
+      <c r="BF7" s="1"/>
+      <c r="BG7" s="1"/>
+      <c r="BH7" s="1"/>
+      <c r="BI7" s="1"/>
+      <c r="BJ7" s="1"/>
+      <c r="BK7" s="1"/>
+      <c r="BL7" s="1"/>
+      <c r="BM7" s="1"/>
+      <c r="BN7" s="1"/>
+      <c r="BO7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
@@ -5480,6 +8100,36 @@
       <c r="AK8" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1"/>
+      <c r="AS8" s="1"/>
+      <c r="AT8" s="1"/>
+      <c r="AU8" s="1"/>
+      <c r="AV8" s="1"/>
+      <c r="AW8" s="1"/>
+      <c r="AX8" s="1"/>
+      <c r="AY8" s="1"/>
+      <c r="AZ8" s="1"/>
+      <c r="BA8" s="1"/>
+      <c r="BB8" s="1"/>
+      <c r="BC8" s="1"/>
+      <c r="BD8" s="1"/>
+      <c r="BE8" s="1"/>
+      <c r="BF8" s="1"/>
+      <c r="BG8" s="1"/>
+      <c r="BH8" s="1"/>
+      <c r="BI8" s="1"/>
+      <c r="BJ8" s="1"/>
+      <c r="BK8" s="1"/>
+      <c r="BL8" s="1"/>
+      <c r="BM8" s="1"/>
+      <c r="BN8" s="1"/>
+      <c r="BO8" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
@@ -5491,7 +8141,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
@@ -5509,10 +8159,10 @@
         <v>6</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>9</v>
@@ -5527,34 +8177,34 @@
         <v>18</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="V12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="X12" s="1" t="s">
         <v>31</v>
@@ -5563,7 +8213,7 @@
         <v>33</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="AA12" s="1" t="s">
         <v>34</v>
@@ -5578,7 +8228,7 @@
         <v>39</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AF12" s="1" t="s">
         <v>41</v>
@@ -5598,6 +8248,36 @@
       <c r="AK12" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="1"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="1"/>
+      <c r="AT12" s="1"/>
+      <c r="AU12" s="1"/>
+      <c r="AV12" s="1"/>
+      <c r="AW12" s="1"/>
+      <c r="AX12" s="1"/>
+      <c r="AY12" s="1"/>
+      <c r="AZ12" s="1"/>
+      <c r="BA12" s="1"/>
+      <c r="BB12" s="1"/>
+      <c r="BC12" s="1"/>
+      <c r="BD12" s="1"/>
+      <c r="BE12" s="1"/>
+      <c r="BF12" s="1"/>
+      <c r="BG12" s="1"/>
+      <c r="BH12" s="1"/>
+      <c r="BI12" s="1"/>
+      <c r="BJ12" s="1"/>
+      <c r="BK12" s="1"/>
+      <c r="BL12" s="1"/>
+      <c r="BM12" s="1"/>
+      <c r="BN12" s="1"/>
+      <c r="BO12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
@@ -5709,6 +8389,36 @@
         <v>0</v>
       </c>
       <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="1"/>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1"/>
+      <c r="AS13" s="1"/>
+      <c r="AT13" s="1"/>
+      <c r="AU13" s="1"/>
+      <c r="AV13" s="1"/>
+      <c r="AW13" s="1"/>
+      <c r="AX13" s="1"/>
+      <c r="AY13" s="1"/>
+      <c r="AZ13" s="1"/>
+      <c r="BA13" s="1"/>
+      <c r="BB13" s="1"/>
+      <c r="BC13" s="1"/>
+      <c r="BD13" s="1"/>
+      <c r="BE13" s="1"/>
+      <c r="BF13" s="1"/>
+      <c r="BG13" s="1"/>
+      <c r="BH13" s="1"/>
+      <c r="BI13" s="1"/>
+      <c r="BJ13" s="1"/>
+      <c r="BK13" s="1"/>
+      <c r="BL13" s="1"/>
+      <c r="BM13" s="1"/>
+      <c r="BN13" s="1"/>
+      <c r="BO13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
@@ -5822,6 +8532,36 @@
       <c r="AK14" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1"/>
+      <c r="AS14" s="1"/>
+      <c r="AT14" s="1"/>
+      <c r="AU14" s="1"/>
+      <c r="AV14" s="1"/>
+      <c r="AW14" s="1"/>
+      <c r="AX14" s="1"/>
+      <c r="AY14" s="1"/>
+      <c r="AZ14" s="1"/>
+      <c r="BA14" s="1"/>
+      <c r="BB14" s="1"/>
+      <c r="BC14" s="1"/>
+      <c r="BD14" s="1"/>
+      <c r="BE14" s="1"/>
+      <c r="BF14" s="1"/>
+      <c r="BG14" s="1"/>
+      <c r="BH14" s="1"/>
+      <c r="BI14" s="1"/>
+      <c r="BJ14" s="1"/>
+      <c r="BK14" s="1"/>
+      <c r="BL14" s="1"/>
+      <c r="BM14" s="1"/>
+      <c r="BN14" s="1"/>
+      <c r="BO14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
@@ -5935,6 +8675,36 @@
       <c r="AK15" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="1"/>
+      <c r="AS15" s="1"/>
+      <c r="AT15" s="1"/>
+      <c r="AU15" s="1"/>
+      <c r="AV15" s="1"/>
+      <c r="AW15" s="1"/>
+      <c r="AX15" s="1"/>
+      <c r="AY15" s="1"/>
+      <c r="AZ15" s="1"/>
+      <c r="BA15" s="1"/>
+      <c r="BB15" s="1"/>
+      <c r="BC15" s="1"/>
+      <c r="BD15" s="1"/>
+      <c r="BE15" s="1"/>
+      <c r="BF15" s="1"/>
+      <c r="BG15" s="1"/>
+      <c r="BH15" s="1"/>
+      <c r="BI15" s="1"/>
+      <c r="BJ15" s="1"/>
+      <c r="BK15" s="1"/>
+      <c r="BL15" s="1"/>
+      <c r="BM15" s="1"/>
+      <c r="BN15" s="1"/>
+      <c r="BO15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
@@ -6048,6 +8818,36 @@
       <c r="AK16" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="1"/>
+      <c r="AO16" s="1"/>
+      <c r="AP16" s="1"/>
+      <c r="AQ16" s="1"/>
+      <c r="AR16" s="1"/>
+      <c r="AS16" s="1"/>
+      <c r="AT16" s="1"/>
+      <c r="AU16" s="1"/>
+      <c r="AV16" s="1"/>
+      <c r="AW16" s="1"/>
+      <c r="AX16" s="1"/>
+      <c r="AY16" s="1"/>
+      <c r="AZ16" s="1"/>
+      <c r="BA16" s="1"/>
+      <c r="BB16" s="1"/>
+      <c r="BC16" s="1"/>
+      <c r="BD16" s="1"/>
+      <c r="BE16" s="1"/>
+      <c r="BF16" s="1"/>
+      <c r="BG16" s="1"/>
+      <c r="BH16" s="1"/>
+      <c r="BI16" s="1"/>
+      <c r="BJ16" s="1"/>
+      <c r="BK16" s="1"/>
+      <c r="BL16" s="1"/>
+      <c r="BM16" s="1"/>
+      <c r="BN16" s="1"/>
+      <c r="BO16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
@@ -6161,6 +8961,36 @@
       <c r="AK17" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="1"/>
+      <c r="AP17" s="1"/>
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="1"/>
+      <c r="AS17" s="1"/>
+      <c r="AT17" s="1"/>
+      <c r="AU17" s="1"/>
+      <c r="AV17" s="1"/>
+      <c r="AW17" s="1"/>
+      <c r="AX17" s="1"/>
+      <c r="AY17" s="1"/>
+      <c r="AZ17" s="1"/>
+      <c r="BA17" s="1"/>
+      <c r="BB17" s="1"/>
+      <c r="BC17" s="1"/>
+      <c r="BD17" s="1"/>
+      <c r="BE17" s="1"/>
+      <c r="BF17" s="1"/>
+      <c r="BG17" s="1"/>
+      <c r="BH17" s="1"/>
+      <c r="BI17" s="1"/>
+      <c r="BJ17" s="1"/>
+      <c r="BK17" s="1"/>
+      <c r="BL17" s="1"/>
+      <c r="BM17" s="1"/>
+      <c r="BN17" s="1"/>
+      <c r="BO17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
@@ -6274,6 +9104,36 @@
       <c r="AK18" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="1"/>
+      <c r="AO18" s="1"/>
+      <c r="AP18" s="1"/>
+      <c r="AQ18" s="1"/>
+      <c r="AR18" s="1"/>
+      <c r="AS18" s="1"/>
+      <c r="AT18" s="1"/>
+      <c r="AU18" s="1"/>
+      <c r="AV18" s="1"/>
+      <c r="AW18" s="1"/>
+      <c r="AX18" s="1"/>
+      <c r="AY18" s="1"/>
+      <c r="AZ18" s="1"/>
+      <c r="BA18" s="1"/>
+      <c r="BB18" s="1"/>
+      <c r="BC18" s="1"/>
+      <c r="BD18" s="1"/>
+      <c r="BE18" s="1"/>
+      <c r="BF18" s="1"/>
+      <c r="BG18" s="1"/>
+      <c r="BH18" s="1"/>
+      <c r="BI18" s="1"/>
+      <c r="BJ18" s="1"/>
+      <c r="BK18" s="1"/>
+      <c r="BL18" s="1"/>
+      <c r="BM18" s="1"/>
+      <c r="BN18" s="1"/>
+      <c r="BO18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
@@ -6387,6 +9247,1156 @@
       <c r="AK19" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="1"/>
+      <c r="AO19" s="1"/>
+      <c r="AP19" s="1"/>
+      <c r="AQ19" s="1"/>
+      <c r="AR19" s="1"/>
+      <c r="AS19" s="1"/>
+      <c r="AT19" s="1"/>
+      <c r="AU19" s="1"/>
+      <c r="AV19" s="1"/>
+      <c r="AW19" s="1"/>
+      <c r="AX19" s="1"/>
+      <c r="AY19" s="1"/>
+      <c r="AZ19" s="1"/>
+      <c r="BA19" s="1"/>
+      <c r="BB19" s="1"/>
+      <c r="BC19" s="1"/>
+      <c r="BD19" s="1"/>
+      <c r="BE19" s="1"/>
+      <c r="BF19" s="1"/>
+      <c r="BG19" s="1"/>
+      <c r="BH19" s="1"/>
+      <c r="BI19" s="1"/>
+      <c r="BJ19" s="1"/>
+      <c r="BK19" s="1"/>
+      <c r="BL19" s="1"/>
+      <c r="BM19" s="1"/>
+      <c r="BN19" s="1"/>
+      <c r="BO19" s="1"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
+      <c r="AO21" s="3"/>
+      <c r="AP21" s="3"/>
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="3"/>
+      <c r="AS21" s="3"/>
+      <c r="AT21" s="3"/>
+      <c r="AU21" s="3"/>
+      <c r="AV21" s="3"/>
+      <c r="AW21" s="3"/>
+      <c r="AX21" s="3"/>
+      <c r="AY21" s="3"/>
+      <c r="AZ21" s="3"/>
+      <c r="BA21" s="3"/>
+      <c r="BB21" s="3"/>
+      <c r="BC21" s="3"/>
+      <c r="BD21" s="3"/>
+      <c r="BE21" s="3"/>
+      <c r="BF21" s="3"/>
+      <c r="BG21" s="3"/>
+      <c r="BH21" s="3"/>
+      <c r="BI21" s="3"/>
+      <c r="BJ21" s="3"/>
+      <c r="BK21" s="3"/>
+      <c r="BL21" s="3"/>
+      <c r="BM21" s="3"/>
+      <c r="BN21" s="3"/>
+      <c r="BO21" s="3"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3"/>
+      <c r="B22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="X22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
+      <c r="AW22" s="3"/>
+      <c r="AX22" s="3"/>
+      <c r="AY22" s="3"/>
+      <c r="AZ22" s="3"/>
+      <c r="BA22" s="3"/>
+      <c r="BB22" s="3"/>
+      <c r="BC22" s="3"/>
+      <c r="BD22" s="3"/>
+      <c r="BE22" s="3"/>
+      <c r="BF22" s="3"/>
+      <c r="BG22" s="3"/>
+      <c r="BH22" s="3"/>
+      <c r="BI22" s="3"/>
+      <c r="BJ22" s="3"/>
+      <c r="BK22" s="3"/>
+      <c r="BL22" s="3"/>
+      <c r="BM22" s="3"/>
+      <c r="BN22" s="3"/>
+      <c r="BO22" s="3"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="3"/>
+      <c r="AQ23" s="3"/>
+      <c r="AR23" s="3"/>
+      <c r="AS23" s="3"/>
+      <c r="AT23" s="3"/>
+      <c r="AU23" s="3"/>
+      <c r="AV23" s="3"/>
+      <c r="AW23" s="3"/>
+      <c r="AX23" s="3"/>
+      <c r="AY23" s="3"/>
+      <c r="AZ23" s="3"/>
+      <c r="BA23" s="3"/>
+      <c r="BB23" s="3"/>
+      <c r="BC23" s="3"/>
+      <c r="BD23" s="3"/>
+      <c r="BE23" s="3"/>
+      <c r="BF23" s="3"/>
+      <c r="BG23" s="3"/>
+      <c r="BH23" s="3"/>
+      <c r="BI23" s="3"/>
+      <c r="BJ23" s="3"/>
+      <c r="BK23" s="3"/>
+      <c r="BL23" s="3"/>
+      <c r="BM23" s="3"/>
+      <c r="BN23" s="3"/>
+      <c r="BO23" s="3"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K24" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="S24" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V24" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="W24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="X24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF24" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="AG24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3"/>
+      <c r="AP24" s="3"/>
+      <c r="AQ24" s="3"/>
+      <c r="AR24" s="3"/>
+      <c r="AS24" s="3"/>
+      <c r="AT24" s="3"/>
+      <c r="AU24" s="3"/>
+      <c r="AV24" s="3"/>
+      <c r="AW24" s="3"/>
+      <c r="AX24" s="3"/>
+      <c r="AY24" s="3"/>
+      <c r="AZ24" s="3"/>
+      <c r="BA24" s="3"/>
+      <c r="BB24" s="3"/>
+      <c r="BC24" s="3"/>
+      <c r="BD24" s="3"/>
+      <c r="BE24" s="3"/>
+      <c r="BF24" s="3"/>
+      <c r="BG24" s="3"/>
+      <c r="BH24" s="3"/>
+      <c r="BI24" s="3"/>
+      <c r="BJ24" s="3"/>
+      <c r="BK24" s="3"/>
+      <c r="BL24" s="3"/>
+      <c r="BM24" s="3"/>
+      <c r="BN24" s="3"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K25" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="S25" s="4">
+        <v>139.0</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V25" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="W25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="X25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF25" s="4">
+        <v>62.0</v>
+      </c>
+      <c r="AG25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="3"/>
+      <c r="AR25" s="3"/>
+      <c r="AS25" s="3"/>
+      <c r="AT25" s="3"/>
+      <c r="AU25" s="3"/>
+      <c r="AV25" s="3"/>
+      <c r="AW25" s="3"/>
+      <c r="AX25" s="3"/>
+      <c r="AY25" s="3"/>
+      <c r="AZ25" s="3"/>
+      <c r="BA25" s="3"/>
+      <c r="BB25" s="3"/>
+      <c r="BC25" s="3"/>
+      <c r="BD25" s="3"/>
+      <c r="BE25" s="3"/>
+      <c r="BF25" s="3"/>
+      <c r="BG25" s="3"/>
+      <c r="BH25" s="3"/>
+      <c r="BI25" s="3"/>
+      <c r="BJ25" s="3"/>
+      <c r="BK25" s="3"/>
+      <c r="BL25" s="3"/>
+      <c r="BM25" s="3"/>
+      <c r="BN25" s="3"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="4">
+        <v>150.08</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I26" s="4">
+        <v>150.08</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K26" s="4">
+        <v>550.56</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="S26" s="4">
+        <v>28161.43</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V26" s="4">
+        <v>417.08</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="X26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF26" s="4">
+        <v>16817.07</v>
+      </c>
+      <c r="AG26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
+      <c r="AP26" s="3"/>
+      <c r="AQ26" s="3"/>
+      <c r="AR26" s="3"/>
+      <c r="AS26" s="3"/>
+      <c r="AT26" s="3"/>
+      <c r="AU26" s="3"/>
+      <c r="AV26" s="3"/>
+      <c r="AW26" s="3"/>
+      <c r="AX26" s="3"/>
+      <c r="AY26" s="3"/>
+      <c r="AZ26" s="3"/>
+      <c r="BA26" s="3"/>
+      <c r="BB26" s="3"/>
+      <c r="BC26" s="3"/>
+      <c r="BD26" s="3"/>
+      <c r="BE26" s="3"/>
+      <c r="BF26" s="3"/>
+      <c r="BG26" s="3"/>
+      <c r="BH26" s="3"/>
+      <c r="BI26" s="3"/>
+      <c r="BJ26" s="3"/>
+      <c r="BK26" s="3"/>
+      <c r="BL26" s="3"/>
+      <c r="BM26" s="3"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="S27" s="4">
+        <v>31.62</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V27" s="4">
+        <v>0.47</v>
+      </c>
+      <c r="W27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="X27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF27" s="4">
+        <v>18.88</v>
+      </c>
+      <c r="AG27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
+      <c r="AP27" s="3"/>
+      <c r="AQ27" s="3"/>
+      <c r="AR27" s="3"/>
+      <c r="AS27" s="3"/>
+      <c r="AT27" s="3"/>
+      <c r="AU27" s="3"/>
+      <c r="AV27" s="3"/>
+      <c r="AW27" s="3"/>
+      <c r="AX27" s="3"/>
+      <c r="AY27" s="3"/>
+      <c r="AZ27" s="3"/>
+      <c r="BA27" s="3"/>
+      <c r="BB27" s="3"/>
+      <c r="BC27" s="3"/>
+      <c r="BD27" s="3"/>
+      <c r="BE27" s="3"/>
+      <c r="BF27" s="3"/>
+      <c r="BG27" s="3"/>
+      <c r="BH27" s="3"/>
+      <c r="BI27" s="3"/>
+      <c r="BJ27" s="3"/>
+      <c r="BK27" s="3"/>
+      <c r="BL27" s="3"/>
+      <c r="BM27" s="3"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="4">
+        <v>150.08</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I28" s="4">
+        <v>150.08</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K28" s="4">
+        <v>137.64</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="S28" s="4">
+        <v>202.6</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="U28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V28" s="4">
+        <v>139.03</v>
+      </c>
+      <c r="W28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="X28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF28" s="4">
+        <v>271.24</v>
+      </c>
+      <c r="AG28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+      <c r="AP28" s="3"/>
+      <c r="AQ28" s="3"/>
+      <c r="AR28" s="3"/>
+      <c r="AS28" s="3"/>
+      <c r="AT28" s="3"/>
+      <c r="AU28" s="3"/>
+      <c r="AV28" s="3"/>
+      <c r="AW28" s="3"/>
+      <c r="AX28" s="3"/>
+      <c r="AY28" s="3"/>
+      <c r="AZ28" s="3"/>
+      <c r="BA28" s="3"/>
+      <c r="BB28" s="3"/>
+      <c r="BC28" s="3"/>
+      <c r="BD28" s="3"/>
+      <c r="BE28" s="3"/>
+      <c r="BF28" s="3"/>
+      <c r="BG28" s="3"/>
+      <c r="BH28" s="3"/>
+      <c r="BI28" s="3"/>
+      <c r="BJ28" s="3"/>
+      <c r="BK28" s="3"/>
+      <c r="BL28" s="3"/>
+      <c r="BM28" s="3"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="4">
+        <v>150.08</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I29" s="4">
+        <v>150.08</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K29" s="4">
+        <v>150.08</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="S29" s="4">
+        <v>100.11</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V29" s="4">
+        <v>150.08</v>
+      </c>
+      <c r="W29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="X29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF29" s="4">
+        <v>166.86</v>
+      </c>
+      <c r="AG29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="3"/>
+      <c r="AO29" s="3"/>
+      <c r="AP29" s="3"/>
+      <c r="AQ29" s="3"/>
+      <c r="AR29" s="3"/>
+      <c r="AS29" s="3"/>
+      <c r="AT29" s="3"/>
+      <c r="AU29" s="3"/>
+      <c r="AV29" s="3"/>
+      <c r="AW29" s="3"/>
+      <c r="AX29" s="3"/>
+      <c r="AY29" s="3"/>
+      <c r="AZ29" s="3"/>
+      <c r="BA29" s="3"/>
+      <c r="BB29" s="3"/>
+      <c r="BC29" s="3"/>
+      <c r="BD29" s="3"/>
+      <c r="BE29" s="3"/>
+      <c r="BF29" s="3"/>
+      <c r="BG29" s="3"/>
+      <c r="BH29" s="3"/>
+      <c r="BI29" s="3"/>
+      <c r="BJ29" s="3"/>
+      <c r="BK29" s="3"/>
+      <c r="BL29" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
